--- a/HTML5.xlsx
+++ b/HTML5.xlsx
@@ -3,24 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4CE7A7AC-989D-45F8-BA10-75F5BF789E7A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{18A9834F-2FCC-41B8-B32D-F8B549B23BD6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan" sheetId="2" r:id="rId2"/>
-    <sheet name="Assignment" sheetId="3" r:id="rId3"/>
-    <sheet name="Images" sheetId="6" r:id="rId4"/>
-    <sheet name="Parameters" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
+    <sheet name="Plan" sheetId="2" r:id="rId3"/>
+    <sheet name="Assignment" sheetId="3" r:id="rId4"/>
+    <sheet name="Images" sheetId="6" r:id="rId5"/>
+    <sheet name="Parameters" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="236">
   <si>
     <t>URL</t>
   </si>
@@ -655,52 +656,79 @@
     <t>https://app.pluralsight.com/player?course=html5-fundamentals&amp;author=craig-shoemaker&amp;name=6a9766c5-3593-460b-995d-10ff4dcdfb76&amp;clip=7&amp;mode=live</t>
   </si>
   <si>
-    <t>D. Forms</t>
-  </si>
-  <si>
-    <t>HTML5-D1</t>
-  </si>
-  <si>
-    <t>Build a Web Form</t>
-  </si>
-  <si>
-    <t>https://app.pluralsight.com/player?course=responsive-web-forms-best-practices&amp;author=paul-cheney&amp;name=720fe7af-ae96-4755-b9f6-64ff4f497d7f&amp;clip=0&amp;mode=live</t>
-  </si>
-  <si>
-    <t>HTML5-D2</t>
-  </si>
-  <si>
-    <t>Style a Web Form</t>
-  </si>
-  <si>
-    <t>https://app.pluralsight.com/player?course=responsive-web-forms-best-practices&amp;author=paul-cheney&amp;name=720fe7af-ae96-4755-b9f6-64ff4f497d7f&amp;clip=1&amp;mode=live</t>
-  </si>
-  <si>
-    <t>HTML5-D3</t>
-  </si>
-  <si>
-    <t>Introduction to the Long Form</t>
-  </si>
-  <si>
-    <t>https://app.pluralsight.com/player?course=responsive-web-forms-best-practices&amp;author=paul-cheney&amp;name=236d4fec-c140-4a4f-84b4-8b467a762c77&amp;clip=0&amp;mode=live</t>
-  </si>
-  <si>
-    <t>HTML5-D4</t>
-  </si>
-  <si>
-    <t>Build and Style the Long Form</t>
-  </si>
-  <si>
-    <t>https://app.pluralsight.com/player?course=responsive-web-forms-best-practices&amp;author=paul-cheney&amp;name=236d4fec-c140-4a4f-84b4-8b467a762c77&amp;clip=1&amp;mode=live</t>
-  </si>
-  <si>
-    <t>HTML5-D5</t>
-  </si>
-  <si>
-    <t>Evaluate the Long Form</t>
-  </si>
-  <si>
-    <t>https://app.pluralsight.com/player?course=responsive-web-forms-best-practices&amp;author=paul-cheney&amp;name=236d4fec-c140-4a4f-84b4-8b467a762c77&amp;clip=2&amp;mode=live</t>
+    <t>Find Part of the Page</t>
+  </si>
+  <si>
+    <t>HTML5-B10</t>
+  </si>
+  <si>
+    <t>HTML5-B11</t>
+  </si>
+  <si>
+    <t>HTML5-B12</t>
+  </si>
+  <si>
+    <t>HTML5-B13</t>
+  </si>
+  <si>
+    <t>HTML5-B14</t>
+  </si>
+  <si>
+    <t>Custom Validation Massages: JavaScript</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/player?course=html5-fundamentals&amp;author=craig-shoemaker&amp;name=1004db75-0a5a-45ce-bc04-fa3b79059c96&amp;clip=9&amp;mode=live</t>
+  </si>
+  <si>
+    <t>00.03.28</t>
+  </si>
+  <si>
+    <t>Custom Validation Rules: Demo, Markup, and JavaScript</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/player?course=html5-fundamentals&amp;author=craig-shoemaker&amp;name=1004db75-0a5a-45ce-bc04-fa3b79059c96&amp;clip=10&amp;mode=live</t>
+  </si>
+  <si>
+    <t>Bootstrap Module: Demo and Markup</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/player?course=html5-fundamentals&amp;author=craig-shoemaker&amp;name=1004db75-0a5a-45ce-bc04-fa3b79059c96&amp;clip=11&amp;mode=live</t>
+  </si>
+  <si>
+    <t>00.03.09</t>
+  </si>
+  <si>
+    <t>00.03.38</t>
+  </si>
+  <si>
+    <t>Bootstrap Module: JavaScript</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/player?course=html5-fundamentals&amp;author=craig-shoemaker&amp;name=1004db75-0a5a-45ce-bc04-fa3b79059c96&amp;clip=12&amp;mode=live</t>
+  </si>
+  <si>
+    <t>00.02.52</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/player?course=html5-fundamentals&amp;author=craig-shoemaker&amp;name=1004db75-0a5a-45ce-bc04-fa3b79059c96&amp;clip=13&amp;mode=live</t>
+  </si>
+  <si>
+    <t>0.00.25</t>
+  </si>
+  <si>
+    <t>Drawing Shapes, Charts, and More</t>
+  </si>
+  <si>
+    <t>Drag and Drop</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/player?course=html5-fundamentals&amp;author=craig-shoemaker&amp;name=3b70a8dc-707a-4ca1-8fbf-e9f54498b136&amp;clip=0&amp;mode=live</t>
+  </si>
+  <si>
+    <t>HTML5-D</t>
+  </si>
+  <si>
+    <t>HTML5-E</t>
   </si>
 </sst>
 </file>
@@ -740,7 +768,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -771,8 +799,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -790,63 +830,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -894,7 +877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -925,43 +908,47 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -969,6 +956,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1783,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,17 +1784,17 @@
     <col min="1" max="1" width="18" style="3" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="84.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13" style="15" customWidth="1"/>
+    <col min="4" max="4" width="13" style="3" customWidth="1"/>
     <col min="5" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1816,597 +1806,618 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="20">
         <v>8.8263888888888878E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="22">
         <v>1.0185185185185186E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="22">
         <v>1.3194444444444443E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="22">
         <v>2.3379629629629631E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="22">
         <v>1.1921296296296296E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="22">
         <v>4.108796296296297E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="22">
         <v>6.018518518518519E-4</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="22">
         <v>5.2083333333333333E-4</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="22">
         <v>8.6805555555555551E-4</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="22">
         <v>2.7662037037037034E-3</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="22">
         <v>2.8240740740740739E-3</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="22">
         <v>5.9027777777777778E-4</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="22">
         <v>1.5972222222222221E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="22">
         <v>7.6620370370370366E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="22">
         <v>3.6689814814814814E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="22">
         <v>2.8124999999999995E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="22">
         <v>2.2337962962962967E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="22">
         <v>5.4398148148148144E-4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="21"/>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="25"/>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D24" s="22">
         <v>3.4722222222222224E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D25" s="22">
         <v>1.0648148148148147E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C26" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D26" s="22">
         <v>1.1226851851851851E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D27" s="22">
         <v>2.2106481481481478E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C28" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D28" s="22">
         <v>4.1666666666666666E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D29" s="22">
         <v>4.1898148148148146E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D30" s="22">
         <v>2.5462962962962961E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C31" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D31" s="22">
         <v>3.4606481481481485E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D32" s="22">
         <v>1.5972222222222221E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="21"/>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="B38" s="25"/>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B39" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C39" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D39" s="22">
         <v>7.0601851851851847E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B40" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C40" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D40" s="22">
         <v>4.9768518518518521E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B41" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C41" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D41" s="22">
         <v>1.2384259259259258E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B42" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C42" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D42" s="22">
         <v>1.5162037037037036E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B43" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C43" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D43" s="22">
         <v>1.1111111111111111E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B44" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C44" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D44" s="22">
         <v>7.1759259259259259E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B45" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C45" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D45" s="22">
         <v>1.7013888888888892E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B46" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C46" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D46" s="22">
         <v>4.0509259259259258E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="B41" s="21"/>
-    </row>
-    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D42" s="16">
-        <v>4.9652777777777777E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D43" s="16">
-        <v>4.1435185185185186E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D44" s="16">
-        <v>1.2152777777777778E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D45" s="16">
-        <v>5.2777777777777771E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D46" s="16">
-        <v>9.3750000000000007E-4</v>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A41:B41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{37CF98DB-7580-479F-919F-9E371E94F2CF}"/>
@@ -2426,35 +2437,151 @@
     <hyperlink ref="C19" r:id="rId15" xr:uid="{9556639A-9618-4BA3-8536-5D6638338D72}"/>
     <hyperlink ref="C20" r:id="rId16" xr:uid="{B9AA8692-E2BE-4EDC-9037-FD747348299A}"/>
     <hyperlink ref="C21" r:id="rId17" xr:uid="{214E9593-0B1F-4538-B699-80AD060B4040}"/>
-    <hyperlink ref="C23" r:id="rId18" xr:uid="{708AFD02-827C-4794-B0CD-84F2D7175BB4}"/>
-    <hyperlink ref="C24" r:id="rId19" xr:uid="{1AE9334A-9B63-4691-82AC-500292EC81CF}"/>
-    <hyperlink ref="C25" r:id="rId20" xr:uid="{0FDFC09B-79D5-4E7F-8E46-C246F80005A3}"/>
-    <hyperlink ref="C26" r:id="rId21" xr:uid="{073AF043-EB64-4368-A18E-D6AE782D03E0}"/>
-    <hyperlink ref="C27" r:id="rId22" xr:uid="{CEB19D2D-EC60-485C-8654-C9F1E24433C1}"/>
-    <hyperlink ref="C28" r:id="rId23" xr:uid="{5B50686D-6C4A-49B1-9B62-0190261B1B1E}"/>
-    <hyperlink ref="C29" r:id="rId24" xr:uid="{8DEBE9EA-FAA9-453E-B2D2-A3162AB0B216}"/>
-    <hyperlink ref="C30" r:id="rId25" xr:uid="{124FCEFF-BFBA-461D-9D1E-7E62C9148DB1}"/>
-    <hyperlink ref="C31" r:id="rId26" xr:uid="{A2133A27-74D4-4E53-98B0-91A909E2AA3C}"/>
-    <hyperlink ref="C33" r:id="rId27" xr:uid="{8AE1184F-7CEC-4F29-A279-B92CC91C42CA}"/>
-    <hyperlink ref="C34" r:id="rId28" xr:uid="{BDB72610-A55E-4EA5-96B2-372B06D31983}"/>
-    <hyperlink ref="C35" r:id="rId29" xr:uid="{098E9895-5337-4BC4-98A8-57C7D8C69C2F}"/>
-    <hyperlink ref="C36" r:id="rId30" xr:uid="{1614157E-3681-49D3-8E7E-316BB482E711}"/>
-    <hyperlink ref="C37" r:id="rId31" xr:uid="{6E3C4A66-7A1E-47C5-952A-72C0A405B37D}"/>
-    <hyperlink ref="C38" r:id="rId32" xr:uid="{FB7D1CCC-0B45-46AC-9917-8C58FD04BF17}"/>
-    <hyperlink ref="C39" r:id="rId33" xr:uid="{025DE15D-FFF4-4362-986F-45A26B367F52}"/>
-    <hyperlink ref="C40" r:id="rId34" xr:uid="{B637736B-7417-4ABC-9976-0ED9AE9153F5}"/>
-    <hyperlink ref="C42" r:id="rId35" xr:uid="{7C925674-F85E-40D3-9CC6-67C5D0AAC9B2}"/>
-    <hyperlink ref="C43" r:id="rId36" xr:uid="{E651F7AD-D635-4D1B-94F1-7A46AFFAA5D7}"/>
-    <hyperlink ref="C44" r:id="rId37" xr:uid="{BF13090E-0B96-48EA-A7E5-96C850E44377}"/>
-    <hyperlink ref="C45" r:id="rId38" xr:uid="{F650A0FC-0210-4DCC-9313-E870D1AB162F}"/>
-    <hyperlink ref="C46" r:id="rId39" xr:uid="{7CAEBCD6-F5DB-48B1-B221-E7CD01316C27}"/>
+    <hyperlink ref="C24" r:id="rId18" xr:uid="{708AFD02-827C-4794-B0CD-84F2D7175BB4}"/>
+    <hyperlink ref="C25" r:id="rId19" xr:uid="{1AE9334A-9B63-4691-82AC-500292EC81CF}"/>
+    <hyperlink ref="C26" r:id="rId20" xr:uid="{0FDFC09B-79D5-4E7F-8E46-C246F80005A3}"/>
+    <hyperlink ref="C27" r:id="rId21" xr:uid="{073AF043-EB64-4368-A18E-D6AE782D03E0}"/>
+    <hyperlink ref="C28" r:id="rId22" xr:uid="{CEB19D2D-EC60-485C-8654-C9F1E24433C1}"/>
+    <hyperlink ref="C29" r:id="rId23" xr:uid="{5B50686D-6C4A-49B1-9B62-0190261B1B1E}"/>
+    <hyperlink ref="C30" r:id="rId24" xr:uid="{8DEBE9EA-FAA9-453E-B2D2-A3162AB0B216}"/>
+    <hyperlink ref="C31" r:id="rId25" xr:uid="{124FCEFF-BFBA-461D-9D1E-7E62C9148DB1}"/>
+    <hyperlink ref="C32" r:id="rId26" xr:uid="{A2133A27-74D4-4E53-98B0-91A909E2AA3C}"/>
+    <hyperlink ref="C39" r:id="rId27" xr:uid="{8AE1184F-7CEC-4F29-A279-B92CC91C42CA}"/>
+    <hyperlink ref="C40" r:id="rId28" xr:uid="{BDB72610-A55E-4EA5-96B2-372B06D31983}"/>
+    <hyperlink ref="C41" r:id="rId29" xr:uid="{098E9895-5337-4BC4-98A8-57C7D8C69C2F}"/>
+    <hyperlink ref="C42" r:id="rId30" xr:uid="{1614157E-3681-49D3-8E7E-316BB482E711}"/>
+    <hyperlink ref="C43" r:id="rId31" xr:uid="{6E3C4A66-7A1E-47C5-952A-72C0A405B37D}"/>
+    <hyperlink ref="C44" r:id="rId32" xr:uid="{FB7D1CCC-0B45-46AC-9917-8C58FD04BF17}"/>
+    <hyperlink ref="C45" r:id="rId33" xr:uid="{025DE15D-FFF4-4362-986F-45A26B367F52}"/>
+    <hyperlink ref="C46" r:id="rId34" xr:uid="{B637736B-7417-4ABC-9976-0ED9AE9153F5}"/>
+    <hyperlink ref="C33" r:id="rId35" xr:uid="{20B49407-522A-47CF-A5F7-9C935EA58252}"/>
+    <hyperlink ref="C34" r:id="rId36" xr:uid="{F1F381CC-084C-4F5F-A133-5CD79435FDE2}"/>
+    <hyperlink ref="C35" r:id="rId37" xr:uid="{9F4FDF06-9413-463E-953D-2A718ECD0CB9}"/>
+    <hyperlink ref="C36" r:id="rId38" xr:uid="{41909B3A-D920-4BFA-91F3-580D34BA7611}"/>
+    <hyperlink ref="C37" r:id="rId39" xr:uid="{B487B701-998D-483F-B4CB-681E30A5924C}"/>
+    <hyperlink ref="C48" r:id="rId40" xr:uid="{C11B6F24-2D56-453C-B1EA-959DD6B1ED76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9154EEF5-0DCE-4D87-9522-4629995E8D65}">
+  <dimension ref="F4:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+    </row>
+    <row r="5" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -2483,7 +2610,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2492,62 +2619,62 @@
       <c r="C2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="26" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -2556,56 +2683,56 @@
       <c r="C9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="A14" s="28"/>
+      <c r="D14" s="28"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -2614,50 +2741,50 @@
       <c r="C16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="26" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="25"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="25"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="A20" s="27"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="A21" s="28"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="26" t="s">
         <v>106</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -2666,79 +2793,79 @@
       <c r="C23" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="26" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="25"/>
+      <c r="D24" s="27"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="25"/>
+      <c r="D25" s="27"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="25"/>
+      <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="25"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="25"/>
+      <c r="D29" s="27"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2755,7 +2882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
@@ -2770,10 +2897,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2813,10 +2940,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="29"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -2853,10 +2980,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="29"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
@@ -2923,10 +3050,10 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="27"/>
+      <c r="B28" s="29"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
@@ -3008,7 +3135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T233"/>
   <sheetViews>
@@ -3019,15 +3146,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
@@ -3061,15 +3188,15 @@
       <c r="T32" s="12"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
@@ -3094,15 +3221,15 @@
       <c r="T50" s="12"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
@@ -3128,15 +3255,15 @@
     </row>
     <row r="95" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A96" s="27" t="s">
+      <c r="A96" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
@@ -3161,15 +3288,15 @@
       <c r="T105" s="12"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B107" s="27"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
@@ -3194,15 +3321,15 @@
       <c r="T135" s="12"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A136" s="27" t="s">
+      <c r="A136" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B136" s="27"/>
-      <c r="C136" s="27"/>
-      <c r="D136" s="27"/>
-      <c r="E136" s="27"/>
-      <c r="F136" s="27"/>
-      <c r="G136" s="27"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="29"/>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="12"/>
@@ -3227,15 +3354,15 @@
       <c r="T177" s="12"/>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A179" s="27" t="s">
+      <c r="A179" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B179" s="27"/>
-      <c r="C179" s="27"/>
-      <c r="D179" s="27"/>
-      <c r="E179" s="27"/>
-      <c r="F179" s="27"/>
-      <c r="G179" s="27"/>
+      <c r="B179" s="29"/>
+      <c r="C179" s="29"/>
+      <c r="D179" s="29"/>
+      <c r="E179" s="29"/>
+      <c r="F179" s="29"/>
+      <c r="G179" s="29"/>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="12"/>
@@ -3260,15 +3387,15 @@
       <c r="T192" s="12"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="27" t="s">
+      <c r="A194" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B194" s="27"/>
-      <c r="C194" s="27"/>
-      <c r="D194" s="27"/>
-      <c r="E194" s="27"/>
-      <c r="F194" s="27"/>
-      <c r="G194" s="27"/>
+      <c r="B194" s="29"/>
+      <c r="C194" s="29"/>
+      <c r="D194" s="29"/>
+      <c r="E194" s="29"/>
+      <c r="F194" s="29"/>
+      <c r="G194" s="29"/>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217" s="12"/>
@@ -3293,15 +3420,15 @@
       <c r="T217" s="12"/>
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A219" s="27" t="s">
+      <c r="A219" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B219" s="27"/>
-      <c r="C219" s="27"/>
-      <c r="D219" s="27"/>
-      <c r="E219" s="27"/>
-      <c r="F219" s="27"/>
-      <c r="G219" s="27"/>
+      <c r="B219" s="29"/>
+      <c r="C219" s="29"/>
+      <c r="D219" s="29"/>
+      <c r="E219" s="29"/>
+      <c r="F219" s="29"/>
+      <c r="G219" s="29"/>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A231" s="12"/>
@@ -3326,15 +3453,15 @@
       <c r="T231" s="12"/>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A233" s="27" t="s">
+      <c r="A233" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B233" s="27"/>
-      <c r="C233" s="27"/>
-      <c r="D233" s="27"/>
-      <c r="E233" s="27"/>
-      <c r="F233" s="27"/>
-      <c r="G233" s="27"/>
+      <c r="B233" s="29"/>
+      <c r="C233" s="29"/>
+      <c r="D233" s="29"/>
+      <c r="E233" s="29"/>
+      <c r="F233" s="29"/>
+      <c r="G233" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3355,7 +3482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -3370,10 +3497,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
@@ -3439,7 +3566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
